--- a/data-raw/bancroft.peanut.uniformity.xlsx
+++ b/data-raw/bancroft.peanut.uniformity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CF6227-5871-4C2A-AAFF-2131E94EFF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="15360" windowHeight="9000" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="2520" yWindow="1480" windowWidth="7590" windowHeight="8130" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="part1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,9 +76,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -115,7 +116,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -221,7 +222,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -363,23 +364,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1.86</v>
       </c>
@@ -399,7 +400,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.3199999999999998</v>
       </c>
@@ -419,7 +420,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.5499999999999998</v>
       </c>
@@ -439,7 +440,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.63</v>
       </c>
@@ -459,7 +460,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.1800000000000002</v>
       </c>
@@ -479,7 +480,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2.5499999999999998</v>
       </c>
@@ -499,7 +500,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.5299999999999998</v>
       </c>
@@ -519,7 +520,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2.2999999999999998</v>
       </c>
@@ -539,7 +540,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.35</v>
       </c>
@@ -559,7 +560,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.23</v>
       </c>
@@ -579,7 +580,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.2000000000000002</v>
       </c>
@@ -599,7 +600,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2.4300000000000002</v>
       </c>
@@ -619,7 +620,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2.54</v>
       </c>
@@ -639,7 +640,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2.5</v>
       </c>
@@ -659,7 +660,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2.68</v>
       </c>
@@ -679,7 +680,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.08</v>
       </c>
@@ -699,7 +700,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.15</v>
       </c>
@@ -719,7 +720,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.48</v>
       </c>
@@ -745,16 +746,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1.6</v>
       </c>
@@ -774,7 +775,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.35</v>
       </c>
@@ -794,7 +795,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.56</v>
       </c>
@@ -814,7 +815,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.7</v>
       </c>
@@ -834,7 +835,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.04</v>
       </c>
@@ -854,7 +855,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2.2999999999999998</v>
       </c>
@@ -874,7 +875,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.23</v>
       </c>
@@ -894,7 +895,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2.04</v>
       </c>
@@ -914,7 +915,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.06</v>
       </c>
@@ -934,7 +935,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -954,7 +955,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.36</v>
       </c>
@@ -974,7 +975,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2.41</v>
       </c>
@@ -994,7 +995,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2.31</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.55</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2.21</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.89</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.68</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.94</v>
       </c>
